--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H2">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I2">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J2">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7181089389729</v>
+        <v>13.37432</v>
       </c>
       <c r="N2">
-        <v>11.7181089389729</v>
+        <v>40.12296</v>
       </c>
       <c r="O2">
-        <v>0.09854515446486724</v>
+        <v>0.1019828318366699</v>
       </c>
       <c r="P2">
-        <v>0.09854515446486724</v>
+        <v>0.1077302617359031</v>
       </c>
       <c r="Q2">
-        <v>50.23742049173306</v>
+        <v>0.3058662402933333</v>
       </c>
       <c r="R2">
-        <v>50.23742049173306</v>
+        <v>2.75279616264</v>
       </c>
       <c r="S2">
-        <v>0.03721534232216905</v>
+        <v>0.0001745708652250259</v>
       </c>
       <c r="T2">
-        <v>0.03721534232216905</v>
+        <v>0.0001844091271389156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H3">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I3">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J3">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.2191089205166</v>
+        <v>96.23965333333335</v>
       </c>
       <c r="N3">
-        <v>88.2191089205166</v>
+        <v>288.71896</v>
       </c>
       <c r="O3">
-        <v>0.7418915253818466</v>
+        <v>0.7338535627914345</v>
       </c>
       <c r="P3">
-        <v>0.7418915253818466</v>
+        <v>0.7752112289052887</v>
       </c>
       <c r="Q3">
-        <v>378.209529654232</v>
+        <v>2.200968791848889</v>
       </c>
       <c r="R3">
-        <v>378.209529654232</v>
+        <v>19.80871912664</v>
       </c>
       <c r="S3">
-        <v>0.2801735634078777</v>
+        <v>0.001256186449206879</v>
       </c>
       <c r="T3">
-        <v>0.2801735634078777</v>
+        <v>0.001326981145011622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H4">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I4">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J4">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.138146958809842</v>
+        <v>0.1994553333333333</v>
       </c>
       <c r="N4">
-        <v>0.138146958809842</v>
+        <v>0.598366</v>
       </c>
       <c r="O4">
-        <v>0.001161767096181373</v>
+        <v>0.001520901228493132</v>
       </c>
       <c r="P4">
-        <v>0.001161767096181373</v>
+        <v>0.001606614412143705</v>
       </c>
       <c r="Q4">
-        <v>0.592258264155758</v>
+        <v>0.004561476988222222</v>
       </c>
       <c r="R4">
-        <v>0.592258264155758</v>
+        <v>0.041053292894</v>
       </c>
       <c r="S4">
-        <v>0.0004387385703315954</v>
+        <v>2.603428818343358E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004387385703315954</v>
+        <v>2.750149833651465E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H5">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I5">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J5">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.267472483492492</v>
+        <v>0.3399400000000001</v>
       </c>
       <c r="N5">
-        <v>0.267472483492492</v>
+        <v>1.01982</v>
       </c>
       <c r="O5">
-        <v>0.00224934904924852</v>
+        <v>0.002592135065899243</v>
       </c>
       <c r="P5">
-        <v>0.00224934904924852</v>
+        <v>0.002738219601034139</v>
       </c>
       <c r="Q5">
-        <v>1.14669761931384</v>
+        <v>0.007774314486666668</v>
       </c>
       <c r="R5">
-        <v>1.14669761931384</v>
+        <v>0.06996883038000001</v>
       </c>
       <c r="S5">
-        <v>0.0008494612984717893</v>
+        <v>4.437131751341026E-06</v>
       </c>
       <c r="T5">
-        <v>0.0008494612984717893</v>
+        <v>4.687194465184248E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H6">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I6">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J6">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.5682243592924</v>
+        <v>20.989489</v>
       </c>
       <c r="N6">
-        <v>18.5682243592924</v>
+        <v>41.978978</v>
       </c>
       <c r="O6">
-        <v>0.1561522040078563</v>
+        <v>0.1600505690775031</v>
       </c>
       <c r="P6">
-        <v>0.1561522040078563</v>
+        <v>0.1127136753456305</v>
       </c>
       <c r="Q6">
-        <v>79.60496866693026</v>
+        <v>0.4800226169336667</v>
       </c>
       <c r="R6">
-        <v>79.60496866693026</v>
+        <v>2.880135701602</v>
       </c>
       <c r="S6">
-        <v>0.05897050705405658</v>
+        <v>0.0002739693124855068</v>
       </c>
       <c r="T6">
-        <v>0.05897050705405658</v>
+        <v>0.0001929395710377236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H7">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I7">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J7">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7181089389729</v>
+        <v>13.37432</v>
       </c>
       <c r="N7">
-        <v>11.7181089389729</v>
+        <v>40.12296</v>
       </c>
       <c r="O7">
-        <v>0.09854515446486724</v>
+        <v>0.1019828318366699</v>
       </c>
       <c r="P7">
-        <v>0.09854515446486724</v>
+        <v>0.1077302617359031</v>
       </c>
       <c r="Q7">
-        <v>82.78982185947416</v>
+        <v>67.49094246866666</v>
       </c>
       <c r="R7">
-        <v>82.78982185947416</v>
+        <v>607.418482218</v>
       </c>
       <c r="S7">
-        <v>0.06132981214269818</v>
+        <v>0.03851994979997923</v>
       </c>
       <c r="T7">
-        <v>0.06132981214269818</v>
+        <v>0.04069081235802165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H8">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I8">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J8">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.2191089205166</v>
+        <v>96.23965333333335</v>
       </c>
       <c r="N8">
-        <v>88.2191089205166</v>
+        <v>288.71896</v>
       </c>
       <c r="O8">
-        <v>0.7418915253818466</v>
+        <v>0.7338535627914345</v>
       </c>
       <c r="P8">
-        <v>0.7418915253818466</v>
+        <v>0.7752112289052887</v>
       </c>
       <c r="Q8">
-        <v>623.2784103790118</v>
+        <v>485.6549646131112</v>
       </c>
       <c r="R8">
-        <v>623.2784103790118</v>
+        <v>4370.894681518001</v>
       </c>
       <c r="S8">
-        <v>0.4617179619739688</v>
+        <v>0.2771839327283483</v>
       </c>
       <c r="T8">
-        <v>0.4617179619739688</v>
+        <v>0.2928051426306325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H9">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I9">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J9">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.138146958809842</v>
+        <v>0.1994553333333333</v>
       </c>
       <c r="N9">
-        <v>0.138146958809842</v>
+        <v>0.598366</v>
       </c>
       <c r="O9">
-        <v>0.001161767096181373</v>
+        <v>0.001520901228493132</v>
       </c>
       <c r="P9">
-        <v>0.001161767096181373</v>
+        <v>0.001606614412143705</v>
       </c>
       <c r="Q9">
-        <v>0.9760245590699731</v>
+        <v>1.006513110727778</v>
       </c>
       <c r="R9">
-        <v>0.9760245590699731</v>
+        <v>9.05861799655</v>
       </c>
       <c r="S9">
-        <v>0.0007230285258497774</v>
+        <v>0.0005744598175711456</v>
       </c>
       <c r="T9">
-        <v>0.0007230285258497774</v>
+        <v>0.0006068345562595578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H10">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I10">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J10">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.267472483492492</v>
+        <v>0.3399400000000001</v>
       </c>
       <c r="N10">
-        <v>0.267472483492492</v>
+        <v>1.01982</v>
       </c>
       <c r="O10">
-        <v>0.00224934904924852</v>
+        <v>0.002592135065899243</v>
       </c>
       <c r="P10">
-        <v>0.00224934904924852</v>
+        <v>0.002738219601034139</v>
       </c>
       <c r="Q10">
-        <v>1.889724645502015</v>
+        <v>1.715442054833334</v>
       </c>
       <c r="R10">
-        <v>1.889724645502015</v>
+        <v>15.4389784935</v>
       </c>
       <c r="S10">
-        <v>0.001399887750776731</v>
+        <v>0.0009790757014192079</v>
       </c>
       <c r="T10">
-        <v>0.001399887750776731</v>
+        <v>0.001034253311793488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H11">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I11">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J11">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.5682243592924</v>
+        <v>20.989489</v>
       </c>
       <c r="N11">
-        <v>18.5682243592924</v>
+        <v>41.978978</v>
       </c>
       <c r="O11">
-        <v>0.1561522040078563</v>
+        <v>0.1600505690775031</v>
       </c>
       <c r="P11">
-        <v>0.1561522040078563</v>
+        <v>0.1127136753456305</v>
       </c>
       <c r="Q11">
-        <v>131.1866953071106</v>
+        <v>105.9194332531083</v>
       </c>
       <c r="R11">
-        <v>131.1866953071106</v>
+        <v>635.51659951865</v>
       </c>
       <c r="S11">
-        <v>0.09718169695379968</v>
+        <v>0.06045272302496248</v>
       </c>
       <c r="T11">
-        <v>0.09718169695379968</v>
+        <v>0.04257309821557331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H12">
+        <v>24.873267</v>
+      </c>
+      <c r="I12">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J12">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.37432</v>
+      </c>
+      <c r="N12">
+        <v>40.12296</v>
+      </c>
+      <c r="O12">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P12">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q12">
+        <v>110.88767743448</v>
+      </c>
+      <c r="R12">
+        <v>997.9890969103199</v>
+      </c>
+      <c r="S12">
+        <v>0.06328831117146559</v>
+      </c>
+      <c r="T12">
+        <v>0.06685504025074251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H13">
+        <v>24.873267</v>
+      </c>
+      <c r="I13">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J13">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N13">
+        <v>288.71896</v>
+      </c>
+      <c r="O13">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P13">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q13">
+        <v>797.9315311158134</v>
+      </c>
+      <c r="R13">
+        <v>7181.383780042321</v>
+      </c>
+      <c r="S13">
+        <v>0.4554134436138793</v>
+      </c>
+      <c r="T13">
+        <v>0.4810791051296445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H14">
+        <v>24.873267</v>
+      </c>
+      <c r="I14">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J14">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.598366</v>
+      </c>
+      <c r="O14">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P14">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q14">
+        <v>1.653701920191333</v>
+      </c>
+      <c r="R14">
+        <v>14.883317281722</v>
+      </c>
+      <c r="S14">
+        <v>0.000943837982103643</v>
+      </c>
+      <c r="T14">
+        <v>0.0009970297060504958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H15">
+        <v>24.873267</v>
+      </c>
+      <c r="I15">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J15">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.01982</v>
+      </c>
+      <c r="O15">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P15">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q15">
+        <v>2.81847279466</v>
+      </c>
+      <c r="R15">
+        <v>25.36625515194</v>
+      </c>
+      <c r="S15">
+        <v>0.001608622232728694</v>
+      </c>
+      <c r="T15">
+        <v>0.001699279094775466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H16">
+        <v>24.873267</v>
+      </c>
+      <c r="I16">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J16">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.989489</v>
+      </c>
+      <c r="N16">
+        <v>41.978978</v>
+      </c>
+      <c r="O16">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P16">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q16">
+        <v>174.025721363521</v>
+      </c>
+      <c r="R16">
+        <v>1044.154328181126</v>
+      </c>
+      <c r="S16">
+        <v>0.09932387674005515</v>
+      </c>
+      <c r="T16">
+        <v>0.06994763755901943</v>
       </c>
     </row>
   </sheetData>
